--- a/raftaar-core/assets/testcase1.xlsx
+++ b/raftaar-core/assets/testcase1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="518">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1539,6 +1539,48 @@
   </si>
   <si>
     <t>#ExchangeAdminUrl</t>
+  </si>
+  <si>
+    <t>and log-in using valid credentials for exchange admin</t>
+  </si>
+  <si>
+    <t>ExchangeAdmin.login()</t>
+  </si>
+  <si>
+    <t>ExchangeAdminLoginUserId</t>
+  </si>
+  <si>
+    <t>if("#argument2".substr(0,1) == "#") "#ExchangeAdminUserId"; else "#argument1";</t>
+  </si>
+  <si>
+    <t>ExchangeAdminLoginPassword</t>
+  </si>
+  <si>
+    <t>if("#argument2".substr(0,1) == "#") "#ExchangeAdminPassword"; else "#argument2";</t>
+  </si>
+  <si>
+    <t>Enter username</t>
+  </si>
+  <si>
+    <t>#ExchangeAdminLoginUserId</t>
+  </si>
+  <si>
+    <t>#ExchangeAdminLoginPassword</t>
+  </si>
+  <si>
+    <t>Click SignIn button</t>
+  </si>
+  <si>
+    <t>ExchangeAdmin.enterInExchange()</t>
+  </si>
+  <si>
+    <t>Enter in #ex_name exchange</t>
+  </si>
+  <si>
+    <t>Enter in specific exchange, or select exchange name from exchange drop down in top-left corner.</t>
+  </si>
+  <si>
+    <t>//*[text()='#ex_name']/ancestor::div[@class='exchange-box']//a[@class='btn-enter'].click();</t>
   </si>
 </sst>
 </file>
@@ -2131,8 +2173,8 @@
   <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4078,7 +4120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4151,22 +4193,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
@@ -4267,40 +4309,205 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="21" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="C7" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C9" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D9" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E9" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F9" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G9" s="21" t="s">
         <v>503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/raftaar-core/assets/testcase1.xlsx
+++ b/raftaar-core/assets/testcase1.xlsx
@@ -1580,7 +1580,7 @@
     <t>Enter in specific exchange, or select exchange name from exchange drop down in top-left corner.</t>
   </si>
   <si>
-    <t>//*[text()='#ex_name']/ancestor::div[@class='exchange-box']//a[@class='btn-enter'].click();</t>
+    <t>xpath=//*[text()='#ex_name']/ancestor::div[@class='exchange-box']//a[@class='btn-enter']</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1745,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1798,9 +1798,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4195,9 +4192,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4215,298 +4212,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>485</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>506</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>508</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="20" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="20" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="20" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="E15" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="F15" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -4520,9 +4517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/raftaar-core/assets/testcase1.xlsx
+++ b/raftaar-core/assets/testcase1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="564">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1581,6 +1581,145 @@
   </si>
   <si>
     <t>xpath=//*[text()='#ex_name']/ancestor::div[@class='exchange-box']//a[@class='btn-enter']</t>
+  </si>
+  <si>
+    <t>Wait for user management  to appear</t>
+  </si>
+  <si>
+    <t>css=li#userManagement i</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>{nolog}{optional}</t>
+  </si>
+  <si>
+    <t>Click  user management</t>
+  </si>
+  <si>
+    <t>ExchangeAdmin.clickView&amp;ApproveTab()</t>
+  </si>
+  <si>
+    <t>Click on View &amp; Approve tab</t>
+  </si>
+  <si>
+    <t>From  user Management</t>
+  </si>
+  <si>
+    <t>navigate to the 'Broker' tab.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ExchangeAdmin.LeftNav.clickBroker()</t>
+  </si>
+  <si>
+    <t>Go to broker in view and approve section</t>
+  </si>
+  <si>
+    <t>click on broker tab</t>
+  </si>
+  <si>
+    <t>Using the 'Download Template' option, download the file 'WebInsure_Broker_Information_Excel_1.0.0.xls'.</t>
+  </si>
+  <si>
+    <t>ExchangeAdmin.manage.downloadTemplate()</t>
+  </si>
+  <si>
+    <t>Verify download template link is not broken</t>
+  </si>
+  <si>
+    <t>assertlinkstatus</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Get download url</t>
+  </si>
+  <si>
+    <t>Download template</t>
+  </si>
+  <si>
+    <t>TemplateFile</t>
+  </si>
+  <si>
+    <t>#TemplateLink</t>
+  </si>
+  <si>
+    <t>Download template serff</t>
+  </si>
+  <si>
+    <t>xpath=//li[@id='broker']//a/i  | //a[contains(@href,'exchange-admin/viewandapprove/manageBrokers')]</t>
+  </si>
+  <si>
+    <t>href</t>
+  </si>
+  <si>
+    <t>TemplateLink</t>
+  </si>
+  <si>
+    <t>//a[text()='Download Template']</t>
+  </si>
+  <si>
+    <t>Click upload broker list button</t>
+  </si>
+  <si>
+    <t>id=uploadBrokerList</t>
+  </si>
+  <si>
+    <t>Upload broker file</t>
+  </si>
+  <si>
+    <t>Click 'Upload' button</t>
+  </si>
+  <si>
+    <t>Wait for upload to finish. This include either an error or success msg.</t>
+  </si>
+  <si>
+    <t>//span[text()='Brokers uploaded successfully.']|//div[@id='uploadStatus'][contains(.,'Please contact on Toll Free No')]|//span[contains(.,'Upload successful. The file is available in the ')]</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>ExchangeAdmin.manageBrokers.uploadBrokers()</t>
+  </si>
+  <si>
+    <t>Upload broker xls file
+argument1- path of broker file to be uploaded. File should have already been prepared using ExchangeAdmin.prepareBrokerXlsFile()</t>
+  </si>
+  <si>
+    <t>Using option 'Upload Broker List', browse and select the modified XLS file having data for new broker.Need to remove skip from verify upload sucess once issue is resolved</t>
+  </si>
+  <si>
+    <t>Message 'Broker Successfully uploaded' should be returned.</t>
+  </si>
+  <si>
+    <t>ExchangeAdmin.manageBrokers.verifyUploadSuccess()</t>
+  </si>
+  <si>
+    <t>Verify broker upload succeeded</t>
+  </si>
+  <si>
+    <t>//div[@id='uploadStatus'][contains(.,'Brokers uploaded successfully.')]|//span[contains(.,'Upload successful. The file is available in the ')]</t>
+  </si>
+  <si>
+    <t>Brokers uploaded successfully.</t>
+  </si>
+  <si>
+    <t>{knownDefect=PHIX-13087}</t>
+  </si>
+  <si>
+    <t>id=brokerList</t>
+  </si>
+  <si>
+    <t>xpath=//input[@value='Upload']</t>
+  </si>
+  <si>
+    <t>#brokerTemplatePath</t>
   </si>
 </sst>
 </file>
@@ -1671,9 +1810,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1745,7 +1882,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1799,14 +1936,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2170,8 +2316,8 @@
   <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4190,321 +4336,682 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="34.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:9" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="E9" s="20" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="E12" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>512</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>500</v>
-      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="20" t="s">
-        <v>513</v>
+        <v>554</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>500</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>394</v>
+        <v>500</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>500</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>516</v>
-      </c>
       <c r="C15" s="20" t="s">
-        <v>515</v>
+        <v>555</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>500</v>
       </c>
       <c r="E15" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20" t="s">
+      <c r="G22" s="19"/>
+      <c r="H22" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I22" s="19" t="s">
         <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
